--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>Bode O</t>
+  </si>
+  <si>
+    <t>Bode E</t>
+  </si>
+  <si>
+    <t>This is my dev branch</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -384,6 +390,14 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -30,10 +30,10 @@
     <t>Bode O</t>
   </si>
   <si>
-    <t>Bode E</t>
-  </si>
-  <si>
     <t>This is my dev branch</t>
+  </si>
+  <si>
+    <t>Bode E1</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -394,10 +394,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
